--- a/BernardoRivero.xlsx
+++ b/BernardoRivero.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Ad,</t>
+          <t xml:space="preserve"> A, Ad</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fi Hx,</t>
+          <t xml:space="preserve"> Fi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> H H, Hd,</t>
+          <t xml:space="preserve"> H, Hd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/BernardoRivero.xlsx
+++ b/BernardoRivero.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> m, C</t>
+          <t xml:space="preserve"> C, m</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> M, M</t>
+          <t xml:space="preserve"> M</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">

--- a/BernardoRivero.xlsx
+++ b/BernardoRivero.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C', FM</t>
+          <t xml:space="preserve"> C, m,</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A, Ad</t>
+          <t xml:space="preserve"> Fi,</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Po1</t>
+          <t>?</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -563,126 +563,6 @@
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> C, m</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fi</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> M</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> H, Hd</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Po3</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
         <is>
           <t>?</t>
         </is>
